--- a/Упражнения простые/8.Basic well.xlsx
+++ b/Упражнения простые/8.Basic well.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Упражнения простые\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B534A5C-7D99-4DE4-B31D-DF586A7FC033}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9858D8D5-BF88-4B5A-876C-8788D1BD199C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21525" yWindow="8820" windowWidth="20775" windowHeight="19350" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21810" yWindow="4020" windowWidth="21420" windowHeight="19530" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP" sheetId="112" r:id="rId1"/>
@@ -5148,7 +5148,7 @@
   <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6657,8 +6657,8 @@
         <f t="array" ref="B104:C104">[1]!Well_calc(Pwf_,Qliq_,fw_,Pcas_,wellStr_,PVTstr_,ESPstr_,,Ksep_,ESPdegr_)</f>
         <v>60.385776112881828</v>
       </c>
-      <c r="C104" t="str">
-        <v>Plin</v>
+      <c r="C104">
+        <v>60.385776112881828</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
